--- a/Offline/BusinessManagement/Ops/Faculty-Docs/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/Faculty-Docs/FacultyList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\Faculty-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6FA78-FDBF-4391-8053-8F62A20252EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB59CD-5484-4264-B0D5-08DC8E49AAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,14 +509,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
